--- a/documentation/Plan Of Tasks.xlsx
+++ b/documentation/Plan Of Tasks.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="EZ1MtS3s/Fq1pX5g6x8jegnnqQKRNX3Bxj1eXkV32qA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="r6w1xPWvJua1V8jLBgcAKCyygfyx4o0eS2VMD4Rd454="/>
     </ext>
   </extLst>
 </workbook>
